--- a/pinassign.xlsx
+++ b/pinassign.xlsx
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -865,6 +865,12 @@
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="168.75" x14ac:dyDescent="0.4">
       <c r="B14">
@@ -912,12 +918,6 @@
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="75" x14ac:dyDescent="0.4">

--- a/pinassign.xlsx
+++ b/pinassign.xlsx
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -919,6 +919,9 @@
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="2:5" ht="75" x14ac:dyDescent="0.4">
       <c r="B20">
@@ -927,6 +930,9 @@
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="2:5" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B21">
@@ -935,6 +941,9 @@
       <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="2:5" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B22">
@@ -943,6 +952,9 @@
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="2:5" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B23">
@@ -996,9 +1008,6 @@
       <c r="D26" t="s">
         <v>46</v>
       </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="27" spans="2:5" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B27">
@@ -1010,9 +1019,6 @@
       <c r="D27" t="s">
         <v>32</v>
       </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="28" spans="2:5" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B28">
@@ -1025,7 +1031,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="112.5" x14ac:dyDescent="0.4">
@@ -1039,7 +1045,7 @@
         <v>32</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="75" x14ac:dyDescent="0.4">
@@ -1053,7 +1059,7 @@
         <v>32</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="75" x14ac:dyDescent="0.4">
@@ -1066,9 +1072,6 @@
       <c r="D31" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="32" spans="2:5" ht="75" x14ac:dyDescent="0.4">
       <c r="B32">
@@ -1079,9 +1082,6 @@
       </c>
       <c r="D32" t="s">
         <v>32</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">

--- a/pinassign.xlsx
+++ b/pinassign.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>CRS_ SYNC,
 I2C1_SDA,
@@ -255,22 +255,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LED0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DIO</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -307,11 +291,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SW_In_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW_In_2</t>
+    <t>SW_Lock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_In_1
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_In_2
+</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -320,18 +310,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">SW_In_4
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SW_Out_1
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SW_Out_2
-</t>
+    <t>SW_Out_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW_Out_2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -340,12 +323,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SW_Lock</t>
+    <t xml:space="preserve">SW_Out_4
+</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">
-Buzzer</t>
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speaker</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -715,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -746,9 +734,6 @@
       <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="4" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4">
@@ -760,9 +745,6 @@
       <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5">
@@ -775,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
@@ -796,9 +778,6 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="8" spans="2:5" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B8">
@@ -810,9 +789,6 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="9" spans="2:5" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B9">
@@ -822,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="75" x14ac:dyDescent="0.4">
@@ -836,10 +812,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="131.25" x14ac:dyDescent="0.4">
@@ -866,10 +842,10 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="168.75" x14ac:dyDescent="0.4">
@@ -879,6 +855,9 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="2:5" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B15">
@@ -967,7 +946,7 @@
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
@@ -978,10 +957,10 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
@@ -992,10 +971,10 @@
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="112.5" x14ac:dyDescent="0.4">
@@ -1006,7 +985,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="93.75" x14ac:dyDescent="0.4">
@@ -1031,7 +1010,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="112.5" x14ac:dyDescent="0.4">
@@ -1045,7 +1024,7 @@
         <v>32</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="75" x14ac:dyDescent="0.4">
@@ -1059,7 +1038,7 @@
         <v>32</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="75" x14ac:dyDescent="0.4">
@@ -1070,7 +1049,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="75" x14ac:dyDescent="0.4">
@@ -1095,5 +1074,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>